--- a/IP Allocation.xlsx
+++ b/IP Allocation.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ezecastleintegration-my.sharepoint.com/personal/hrahman_eci_com/Documents/Documents/My Docs/CCNA/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CCNA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{FE652C32-DA6F-4D80-B600-3C374A2E5444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24FC550F-F8D9-444F-B731-A9A1F725A8A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01943483-10BB-49B2-A48D-31864E13D419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{A8023396-E239-40E5-AFD2-B8383D64504E}"/>
+    <workbookView xWindow="0" yWindow="-4710" windowWidth="14400" windowHeight="7530" activeTab="1" xr2:uid="{A8023396-E239-40E5-AFD2-B8383D64504E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="London Branch office" sheetId="1" r:id="rId2"/>
+    <sheet name="London office" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -367,19 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -387,42 +375,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,19 +392,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +425,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,43 +815,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266C4DE3-3653-40FA-83B8-93FEA6DA861E}">
   <dimension ref="B4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="36"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="C4" s="35"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>10</v>
       </c>
@@ -869,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>20</v>
       </c>
@@ -886,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>30</v>
       </c>
@@ -903,7 +902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>40</v>
       </c>
@@ -920,8 +919,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="53">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
         <v>60</v>
       </c>
       <c r="C11" t="s">
@@ -937,7 +936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>99</v>
       </c>
@@ -967,785 +966,783 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDC0189-FB8F-4D6A-8D0E-5187E4943D44}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="22" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="38" t="s">
+      <c r="O6" s="48"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="15" t="s">
+      <c r="R6" s="51"/>
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="49" t="s">
+      <c r="L7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="R7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21" t="s">
+      <c r="M8" s="15"/>
+      <c r="N8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="42" t="s">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="42"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="27">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="29">
         <v>1</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="31">
         <v>1</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="33">
         <v>1</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="42" t="s">
+      <c r="Q9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="25">
         <v>1</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="S9" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="27">
         <v>2</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="29">
         <v>2</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="31">
         <v>2</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="33">
         <v>2</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="25">
         <v>2</v>
       </c>
-      <c r="S10" s="42"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="27">
         <v>3</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="29">
         <v>3</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="31">
         <v>3</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="33">
         <v>3</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="25">
         <v>3</v>
       </c>
-      <c r="S11" s="42"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="27">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="29">
         <v>4</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="31">
         <v>4</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="33">
         <v>4</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="25">
         <v>4</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="S12" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="18" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="46">
-        <v>5</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="27">
+        <v>5</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="48">
-        <v>5</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20" t="s">
+      <c r="I13" s="29">
+        <v>5</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="50">
-        <v>5</v>
-      </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21" t="s">
+      <c r="L13" s="31">
+        <v>5</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="52">
-        <v>5</v>
-      </c>
-      <c r="P13" s="21" t="s">
+      <c r="O13" s="33">
+        <v>5</v>
+      </c>
+      <c r="P13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="42" t="s">
+      <c r="Q13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="44">
-        <v>5</v>
-      </c>
-      <c r="S13" s="42" t="s">
+      <c r="R13" s="25">
+        <v>5</v>
+      </c>
+      <c r="S13" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="27">
         <v>6</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="29">
         <v>6</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="31">
         <v>6</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="33">
         <v>6</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="Q14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="25">
         <v>6</v>
       </c>
-      <c r="S14" s="42"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
         <v>7</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="27">
         <v>7</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="29">
         <v>7</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="31">
         <v>7</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="33">
         <v>7</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="42" t="s">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="25">
         <v>7</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="S15" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="14">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10">
         <v>8</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="27">
         <v>8</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="29">
         <v>8</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="31">
         <v>8</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="52">
+      <c r="O16" s="33">
         <v>8</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="42" t="s">
+      <c r="P16" s="16"/>
+      <c r="Q16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="25">
         <v>8</v>
       </c>
-      <c r="S16" s="42"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10">
         <v>9</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="27">
         <v>9</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="29">
         <v>9</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="31">
         <v>9</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="33">
         <v>9</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="42" t="s">
+      <c r="Q17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="25">
         <v>9</v>
       </c>
-      <c r="S17" s="42"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10">
         <v>10</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="27">
         <v>10</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="29">
         <v>10</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20" t="s">
+      <c r="J18" s="14"/>
+      <c r="K18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="31">
         <v>10</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="52">
+      <c r="O18" s="33">
         <v>10</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="25">
         <v>10</v>
       </c>
-      <c r="S18" s="42"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10">
         <v>11</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="27">
         <v>11</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="29">
         <v>11</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20" t="s">
+      <c r="J19" s="14"/>
+      <c r="K19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="50">
+      <c r="L19" s="31">
         <v>11</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="33">
         <v>11</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="42" t="s">
+      <c r="P19" s="16"/>
+      <c r="Q19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="25">
         <v>11</v>
       </c>
-      <c r="S19" s="42"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S19" s="23"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10">
         <v>254</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="27">
         <v>254</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="29">
         <v>254</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="31">
         <v>254</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="52">
+      <c r="O20" s="33">
         <v>30</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="42" t="s">
+      <c r="P20" s="16"/>
+      <c r="Q20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="25">
         <v>254</v>
       </c>
-      <c r="S20" s="42"/>
+      <c r="S20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP Allocation.xlsx
+++ b/IP Allocation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CCNA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01943483-10BB-49B2-A48D-31864E13D419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1171A096-5C98-447B-9F51-7A6FD7CB1AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-4710" windowWidth="14400" windowHeight="7530" activeTab="1" xr2:uid="{A8023396-E239-40E5-AFD2-B8383D64504E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{A8023396-E239-40E5-AFD2-B8383D64504E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="London office" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
   <si>
     <t>Alphateck.local</t>
   </si>
@@ -428,6 +429,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,24 +478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,22 +820,22 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="35"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>57</v>
       </c>
@@ -851,7 +852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>10</v>
       </c>
@@ -868,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>20</v>
       </c>
@@ -885,7 +886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>30</v>
       </c>
@@ -902,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>40</v>
       </c>
@@ -919,7 +920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="34">
         <v>60</v>
       </c>
@@ -936,7 +937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>99</v>
       </c>
@@ -967,89 +968,89 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="42"/>
       <c r="C2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47" t="s">
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50" t="s">
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
+    </row>
+    <row r="7" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1153,7 @@
       </c>
       <c r="S8" s="23"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1263,9 +1264,11 @@
       <c r="R10" s="25">
         <v>2</v>
       </c>
-      <c r="S10" s="23"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1317,9 +1320,11 @@
       <c r="R11" s="25">
         <v>3</v>
       </c>
-      <c r="S11" s="23"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
@@ -1415,7 +1420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1466,7 @@
       </c>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1556,7 @@
       </c>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1602,7 @@
       </c>
       <c r="S17" s="23"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1648,7 @@
       </c>
       <c r="S18" s="23"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1692,7 @@
       </c>
       <c r="S19" s="23"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
